--- a/metadata/cedar-histology/todo/University of Rochester Medical Center TMC (Histology).xlsx
+++ b/metadata/cedar-histology/todo/University of Rochester Medical Center TMC (Histology).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$92</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -429,12 +429,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>NanoZoomer S210</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>In-House</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -451,14 +451,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Right-and-up</t>
@@ -471,21 +471,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Sublimator</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Column-by-column</t>
@@ -493,16 +488,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>EVOS M7000</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Left-and-down</t>
@@ -515,16 +505,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Chromium Controller</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Right-and-down</t>
@@ -537,128 +522,98 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Custom</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>NanoZoomer S360</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>NanoZoomer S60</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Chromium X</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ionpath</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>AutoStainer XL</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Akoya Biosciences</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Visium CytAssist</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SunChrom</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>SunCollect Sprayer</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>M3+ Sprayer</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Discovery Ultra</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>ST5020 Multistainer</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Chromium iX</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Chromium Connect</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>M5 Sprayer</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -675,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,10 +673,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -737,7 +696,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -794,10 +753,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
@@ -813,7 +776,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -870,10 +833,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
@@ -889,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -946,10 +913,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
@@ -965,7 +936,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1022,10 +993,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
@@ -1041,7 +1016,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1098,10 +1073,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
@@ -1117,7 +1096,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1174,10 +1153,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>scan_direction</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
@@ -1193,7 +1176,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1207,19 +1190,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM456.JXKC.964</t>
+          <t>HBM399.VCTL.353</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM456.JXKC.964</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM399.VCTL.353</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1214,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
@@ -1250,7 +1237,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1269,7 +1256,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1283,19 +1270,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM523.XDPR.464</t>
+          <t>HBM456.JXKC.964</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM523.XDPR.464</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM456.JXKC.964</t>
         </is>
       </c>
     </row>
@@ -1307,10 +1294,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
@@ -1326,7 +1317,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1345,7 +1336,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1359,19 +1350,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM528.LZXN.493</t>
+          <t>HBM523.XDPR.464</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM528.LZXN.493</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM523.XDPR.464</t>
         </is>
       </c>
     </row>
@@ -1383,10 +1374,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
@@ -1402,7 +1397,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1421,7 +1416,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1435,19 +1430,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM565.JWWL.387</t>
+          <t>HBM528.LZXN.493</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.JWWL.387</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM528.LZXN.493</t>
         </is>
       </c>
     </row>
@@ -1459,10 +1454,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
@@ -1478,7 +1477,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1497,7 +1496,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1511,19 +1510,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM566.TTRJ.696</t>
+          <t>HBM565.JWWL.387</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM566.TTRJ.696</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.JWWL.387</t>
         </is>
       </c>
     </row>
@@ -1535,10 +1534,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -1554,7 +1557,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -1573,7 +1576,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1587,19 +1590,19 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM643.ZLCP.953</t>
+          <t>HBM566.TTRJ.696</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM643.ZLCP.953</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM566.TTRJ.696</t>
         </is>
       </c>
     </row>
@@ -1611,10 +1614,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
@@ -1630,7 +1637,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -1649,7 +1656,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1663,19 +1670,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM663.FZHP.966</t>
+          <t>HBM643.ZLCP.953</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM663.FZHP.966</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM643.ZLCP.953</t>
         </is>
       </c>
     </row>
@@ -1687,10 +1694,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -1706,7 +1717,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -1725,7 +1736,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1739,19 +1750,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM679.KXJK.793</t>
+          <t>HBM663.FZHP.966</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM679.KXJK.793</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM663.FZHP.966</t>
         </is>
       </c>
     </row>
@@ -1763,10 +1774,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
@@ -1782,7 +1797,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -1801,7 +1816,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1815,19 +1830,19 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM729.MZFT.776</t>
+          <t>HBM679.KXJK.793</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM729.MZFT.776</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM679.KXJK.793</t>
         </is>
       </c>
     </row>
@@ -1839,10 +1854,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
@@ -1858,7 +1877,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -1877,7 +1896,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1891,19 +1910,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM829.KNTB.469</t>
+          <t>HBM729.MZFT.776</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM829.KNTB.469</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM729.MZFT.776</t>
         </is>
       </c>
     </row>
@@ -1915,10 +1934,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
@@ -1934,7 +1957,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -1953,7 +1976,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -1967,19 +1990,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM838.JRMG.794</t>
+          <t>HBM829.KNTB.469</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM838.JRMG.794</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM829.KNTB.469</t>
         </is>
       </c>
     </row>
@@ -1991,10 +2014,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
@@ -2010,7 +2037,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -2029,7 +2056,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -2043,19 +2070,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM875.QXTM.245</t>
+          <t>HBM838.JRMG.794</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM875.QXTM.245</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM838.JRMG.794</t>
         </is>
       </c>
     </row>
@@ -2067,10 +2094,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
@@ -2086,7 +2117,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -2105,7 +2136,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
@@ -2119,19 +2150,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM933.FFBL.875</t>
+          <t>HBM875.QXTM.245</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM933.FFBL.875</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM875.QXTM.245</t>
         </is>
       </c>
     </row>
@@ -2143,10 +2174,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
@@ -2162,7 +2197,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -2181,7 +2216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -2195,19 +2230,19 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM964.BNKC.483</t>
+          <t>HBM933.FFBL.875</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.BNKC.483</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM933.FFBL.875</t>
         </is>
       </c>
     </row>
@@ -2219,10 +2254,14 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
@@ -2238,7 +2277,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -2257,7 +2296,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -2271,19 +2310,19 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM964.GDHC.855</t>
+          <t>HBM964.BNKC.483</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.GDHC.855</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.BNKC.483</t>
         </is>
       </c>
     </row>
@@ -2295,10 +2334,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
@@ -2314,7 +2357,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -2333,7 +2376,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -2347,19 +2390,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM974.VVQW.748</t>
+          <t>HBM964.GDHC.855</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
+          <t>tile_configuration</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM974.VVQW.748</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.GDHC.855</t>
         </is>
       </c>
     </row>
@@ -2371,10 +2414,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>is_staining_automated</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
@@ -2390,7 +2437,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>scan_direction</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -2409,7 +2456,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tile_configuration</t>
+          <t>scan_direction</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -2420,19 +2467,38 @@
         </is>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>HBM974.VVQW.748</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>tile_configuration</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://portal.hubmapconsortium.org/browse/HBM974.VVQW.748</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E91"/>
+  <autoFilter ref="A1:E92"/>
   <dataValidations count="4">
-    <dataValidation sqref="D2 D6 D10 D14 D18 D22 D28 D32 D36 D40 D44 D48 D52 D56 D60 D64 D68 D72 D76 D80 D84 D88" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$19</formula1>
+    <dataValidation sqref="D2 D6 D10 D14 D18 D22 D26 D29 D33 D37 D41 D45 D49 D53 D57 D61 D65 D69 D73 D77 D81 D85 D89" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D7 D11 D15 D19 D23 D29 D33 D37 D41 D45 D49 D53 D57 D61 D65 D69 D73 D77 D81 D85 D89" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$11</formula1>
+    <dataValidation sqref="D3 D7 D11 D15 D19 D23 D30 D34 D38 D42 D46 D50 D54 D58 D62 D66 D70 D74 D78 D82 D86 D90" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$19</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D8 D12 D16 D20 D24 D26 D30 D34 D38 D42 D46 D50 D54 D58 D62 D66 D70 D74 D78 D82 D86 D90" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D4 D8 D12 D16 D20 D24 D27 D31 D35 D39 D43 D47 D51 D55 D59 D63 D67 D71 D75 D79 D83 D87 D91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D9 D13 D17 D21 D25 D27 D31 D35 D39 D43 D47 D51 D55 D59 D63 D67 D71 D75 D79 D83 D87 D91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+    <dataValidation sqref="D5 D9 D13 D17 D21 D25 D28 D32 D36 D40 D44 D48 D52 D56 D60 D64 D68 D72 D76 D80 D84 D88 D92" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$D$1:$D$5</formula1>
     </dataValidation>
   </dataValidations>
